--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetAmerican FootballEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetAmerican FootballEmptyMarketsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>3716971  This game has no available Markets</t>
   </si>
@@ -66,21 +66,6 @@
   </si>
   <si>
     <t>3717241  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717584  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717611  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717628  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717870  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3718061  This game has no available Markets</t>
   </si>
 </sst>
 </file>
@@ -125,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -224,31 +209,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetAmerican FootballEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetAmerican FootballEmptyMarketsList.xlsx
@@ -12,60 +12,543 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>3716971  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717027  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717029  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717035  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717039  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717051  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717065  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717067  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717074  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717083  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717105  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717129  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717149  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717159  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717161  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717171  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717202  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3717241  This game has no available Markets</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+  <si>
+    <t>3716941  This game has no available Markets:  Start time = 2022-10-21T04:15:01</t>
+  </si>
+  <si>
+    <t>3716951  This game has no available Markets:  Start time = 2022-10-31T00:05:01</t>
+  </si>
+  <si>
+    <t>3716956  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3716959  This game has no available Markets:  Start time = 2022-10-10T00:05:01</t>
+  </si>
+  <si>
+    <t>3716961  This game has no available Markets:  Start time = 2022-10-23T21:00:01</t>
+  </si>
+  <si>
+    <t>3716962  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3716968  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3716970  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3716971  This game has no available Markets:  Start time = 2022-12-09T04:15:01</t>
+  </si>
+  <si>
+    <t>3716972  This game has no available Markets:  Start time = 2022-10-23T21:00:01</t>
+  </si>
+  <si>
+    <t>3716974  This game has no available Markets:  Start time = 2022-12-11T21:00:01</t>
+  </si>
+  <si>
+    <t>3716975  This game has no available Markets:  Start time = 2022-12-11T21:00:01</t>
+  </si>
+  <si>
+    <t>3716979  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3716981  This game has no available Markets:  Start time = 2022-11-04T04:15:01</t>
+  </si>
+  <si>
+    <t>3716983  This game has no available Markets:  Start time = 2022-12-11T21:00:01</t>
+  </si>
+  <si>
+    <t>3716984  This game has no available Markets:  Start time = 2022-11-28T00:05:01</t>
+  </si>
+  <si>
+    <t>3716987  This game has no available Markets:  Start time = 2022-12-19T00:05:01</t>
+  </si>
+  <si>
+    <t>3716988  This game has no available Markets:  Start time = 2022-10-03T00:05:01</t>
+  </si>
+  <si>
+    <t>3716989  This game has no available Markets:  Start time = 2022-12-05T04:20:01</t>
+  </si>
+  <si>
+    <t>3716990  This game has no available Markets:  Start time = 2022-10-03T00:25:01</t>
+  </si>
+  <si>
+    <t>3716991  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3716994  This game has no available Markets:  Start time = 2022-11-29T04:15:01</t>
+  </si>
+  <si>
+    <t>3716996  This game has no available Markets:  Start time = 2022-10-07T04:15:01</t>
+  </si>
+  <si>
+    <t>3716998  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3716999  This game has no available Markets:  Start time = 2022-10-24T00:25:01</t>
+  </si>
+  <si>
+    <t>3717000  This game has no available Markets:  Start time = 2022-10-31T00:25:01</t>
+  </si>
+  <si>
+    <t>3717004  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717006  This game has no available Markets:  Start time = 2022-12-16T04:15:01</t>
+  </si>
+  <si>
+    <t>3717008  This game has no available Markets:  Start time = 2022-11-27T21:00:01</t>
+  </si>
+  <si>
+    <t>3717009  This game has no available Markets:  Start time = 2022-11-21T00:25:01</t>
+  </si>
+  <si>
+    <t>3717010  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717012  This game has no available Markets:  Start time = 2022-11-18T04:15:01</t>
+  </si>
+  <si>
+    <t>3717014  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3717015  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717016  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3717019  This game has no available Markets:  Start time = 2022-11-14T04:20:01</t>
+  </si>
+  <si>
+    <t>3717022  This game has no available Markets:  Start time = 2022-10-10T00:25:01</t>
+  </si>
+  <si>
+    <t>3717023  This game has no available Markets:  Start time = 2022-10-03T00:25:01</t>
+  </si>
+  <si>
+    <t>3717025  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717026  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717027  This game has no available Markets:  Start time = 2022-10-31T04:20:01</t>
+  </si>
+  <si>
+    <t>3717029  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717030  This game has no available Markets:  Start time = 2022-11-13T21:00:01</t>
+  </si>
+  <si>
+    <t>3717031  This game has no available Markets:  Start time = 2022-11-28T04:20:01</t>
+  </si>
+  <si>
+    <t>3717032  This game has no available Markets:  Start time = 2022-12-20T00:25:00</t>
+  </si>
+  <si>
+    <t>3717034  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717035  This game has no available Markets:  Start time = 2022-11-14T00:25:01</t>
+  </si>
+  <si>
+    <t>3717036  This game has no available Markets:  Start time = 2022-10-18T04:15:01</t>
+  </si>
+  <si>
+    <t>3717037  This game has no available Markets:  Start time = 2022-11-27T21:00:01</t>
+  </si>
+  <si>
+    <t>3717038  This game has no available Markets:  Start time = 2022-10-23T21:00:01</t>
+  </si>
+  <si>
+    <t>3717039  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3717042  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717043  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717046  This game has no available Markets:  Start time = 2022-10-28T04:15:01</t>
+  </si>
+  <si>
+    <t>3717047  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717049  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3717051  This game has no available Markets:  Start time = 2022-12-05T00:05:01</t>
+  </si>
+  <si>
+    <t>3717053  This game has no available Markets:  Start time = 2022-12-25T04:15:01</t>
+  </si>
+  <si>
+    <t>3717054  This game has no available Markets:  Start time = 2022-12-12T04:20:01</t>
+  </si>
+  <si>
+    <t>3717055  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717056  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717057  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717059  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717060  This game has no available Markets:  Start time = 2022-09-30T04:15:01</t>
+  </si>
+  <si>
+    <t>3717061  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717065  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717066  This game has no available Markets:  Start time = 2022-10-14T04:15:01</t>
+  </si>
+  <si>
+    <t>3717067  This game has no available Markets:  Start time = 2022-10-31T00:25:01</t>
+  </si>
+  <si>
+    <t>3717068  This game has no available Markets:  Start time = 2022-11-13T21:00:01</t>
+  </si>
+  <si>
+    <t>3717069  This game has no available Markets:  Start time = 2022-11-22T00:02:00</t>
+  </si>
+  <si>
+    <t>3717071  This game has no available Markets:  Start time = 2022-12-12T00:25:01</t>
+  </si>
+  <si>
+    <t>3717072  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717073  This game has no available Markets:  Start time = 2022-11-08T04:15:01</t>
+  </si>
+  <si>
+    <t>3717074  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717077  This game has no available Markets:  Start time = 2022-10-23T21:00:01</t>
+  </si>
+  <si>
+    <t>3717078  This game has no available Markets:  Start time = 2022-12-19T00:25:01</t>
+  </si>
+  <si>
+    <t>3717082  This game has no available Markets:  Start time = 2022-12-11T21:00:01</t>
+  </si>
+  <si>
+    <t>3717083  This game has no available Markets:  Start time = 2022-11-13T21:00:01</t>
+  </si>
+  <si>
+    <t>3717084  This game has no available Markets:  Start time = 2022-10-24T00:25:01</t>
+  </si>
+  <si>
+    <t>3717086  This game has no available Markets:  Start time = 2022-10-11T04:15:01</t>
+  </si>
+  <si>
+    <t>3717088  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3717089  This game has no available Markets:  Start time = 2022-11-28T00:25:01</t>
+  </si>
+  <si>
+    <t>3717092  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3717093  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717094  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717097  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717098  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717099  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3717100  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717102  This game has no available Markets:  Start time = 2022-10-17T00:05:01</t>
+  </si>
+  <si>
+    <t>3717103  This game has no available Markets:  Start time = 2022-12-06T00:25:00</t>
+  </si>
+  <si>
+    <t>3717104  This game has no available Markets:  Start time = 2022-11-27T21:00:01</t>
+  </si>
+  <si>
+    <t>3717105  This game has no available Markets:  Start time = 2022-10-17T00:05:01</t>
+  </si>
+  <si>
+    <t>3717107  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3717112  This game has no available Markets:  Start time = 2022-11-15T04:15:01</t>
+  </si>
+  <si>
+    <t>3717114  This game has no available Markets:  Start time = 2022-12-27T04:15:01</t>
+  </si>
+  <si>
+    <t>3717115  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3717117  This game has no available Markets:  Start time = 2022-12-23T04:15:01</t>
+  </si>
+  <si>
+    <t>3717118  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717119  This game has no available Markets:  Start time = 2022-11-22T00:25:00</t>
+  </si>
+  <si>
+    <t>3717120  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717123  This game has no available Markets:  Start time = 2022-10-23T21:00:01</t>
+  </si>
+  <si>
+    <t>3717127  This game has no available Markets:  Start time = 2022-09-26T04:15:01</t>
+  </si>
+  <si>
+    <t>3717128  This game has no available Markets:  Start time = 2022-10-10T04:20:01</t>
+  </si>
+  <si>
+    <t>3717129  This game has no available Markets:  Start time = 2022-11-28T00:25:01</t>
+  </si>
+  <si>
+    <t>3717131  This game has no available Markets:  Start time = 2022-10-23T21:00:01</t>
+  </si>
+  <si>
+    <t>3717132  This game has no available Markets:  Start time = 2022-12-19T04:20:01</t>
+  </si>
+  <si>
+    <t>3717134  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717135  This game has no available Markets:  Start time = 2022-12-25T00:05:01</t>
+  </si>
+  <si>
+    <t>3717139  This game has no available Markets:  Start time = 2022-11-28T00:05:01</t>
+  </si>
+  <si>
+    <t>3717143  This game has no available Markets:  Start time = 2022-11-27T21:00:01</t>
+  </si>
+  <si>
+    <t>3717144  This game has no available Markets:  Start time = 2022-12-26T01:30:00</t>
+  </si>
+  <si>
+    <t>3717146  This game has no available Markets:  Start time = 2022-11-07T04:20:01</t>
+  </si>
+  <si>
+    <t>3717147  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717148  This game has no available Markets:  Start time = 2022-12-06T00:25:00</t>
+  </si>
+  <si>
+    <t>3717149  This game has no available Markets:  Start time = 2022-12-11T21:00:01</t>
+  </si>
+  <si>
+    <t>3717150  This game has no available Markets:  Start time = 2022-11-07T00:05:01</t>
+  </si>
+  <si>
+    <t>3717152  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717156  This game has no available Markets:  Start time = 2022-10-24T00:05:01</t>
+  </si>
+  <si>
+    <t>3717163  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3717164  This game has no available Markets:  Start time = 2022-11-21T04:20:01</t>
+  </si>
+  <si>
+    <t>3717165  This game has no available Markets:  Start time = 2022-11-20T21:00:01</t>
+  </si>
+  <si>
+    <t>3717166  This game has no available Markets:  Start time = 2022-12-13T04:15:01</t>
+  </si>
+  <si>
+    <t>3717167  This game has no available Markets:  Start time = 2022-11-13T21:00:01</t>
+  </si>
+  <si>
+    <t>3717171  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717174  This game has no available Markets:  Start time = 2022-12-18T21:00:01</t>
+  </si>
+  <si>
+    <t>3717177  This game has no available Markets:  Start time = 2023-01-01T21:00:01</t>
+  </si>
+  <si>
+    <t>3717180  This game has no available Markets:  Start time = 2022-11-13T21:00:01</t>
+  </si>
+  <si>
+    <t>3717182  This game has no available Markets:  Start time = 2022-12-12T00:05:01</t>
+  </si>
+  <si>
+    <t>3717183  This game has no available Markets:  Start time = 2022-12-25T00:25:01</t>
+  </si>
+  <si>
+    <t>3717185  This game has no available Markets:  Start time = 2022-11-13T18:30:00</t>
+  </si>
+  <si>
+    <t>3717189  This game has no available Markets:  Start time = 2022-11-14T00:05:01</t>
+  </si>
+  <si>
+    <t>3717191  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3717193  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3717198  This game has no available Markets:  Start time = 2022-11-14T01:25:00</t>
+  </si>
+  <si>
+    <t>3717201  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3717202  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3717208  This game has no available Markets:  Start time = 2022-10-03T04:20:00</t>
+  </si>
+  <si>
+    <t>3717210  This game has no available Markets:  Start time = 2022-12-11T21:00:01</t>
+  </si>
+  <si>
+    <t>3717211  This game has no available Markets:  Start time = 2022-11-27T21:00:01</t>
+  </si>
+  <si>
+    <t>3717214  This game has no available Markets:  Start time = 2023-01-08T21:00:01</t>
+  </si>
+  <si>
+    <t>3717218  This game has no available Markets:  Start time = 2022-10-09T17:30:00</t>
+  </si>
+  <si>
+    <t>3717220  This game has no available Markets:  Start time = 2022-11-27T21:00:01</t>
+  </si>
+  <si>
+    <t>3717225  This game has no available Markets:  Start time = 2022-10-30T17:30:00</t>
+  </si>
+  <si>
+    <t>3717227  This game has no available Markets:  Start time = 2022-12-05T00:05:01</t>
+  </si>
+  <si>
+    <t>3717232  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3717233  This game has no available Markets:  Start time = 2022-10-02T17:30:00</t>
+  </si>
+  <si>
+    <t>3717238  This game has no available Markets:  Start time = 2022-11-22T05:15:00</t>
+  </si>
+  <si>
+    <t>3717241  This game has no available Markets:  Start time = 2022-12-02T04:15:01</t>
+  </si>
+  <si>
+    <t>3717539  This game has no available Markets:  Start time = 2022-11-11T04:15:01</t>
+  </si>
+  <si>
+    <t>3717547  This game has no available Markets:  Start time = 2022-12-25T21:00:01</t>
+  </si>
+  <si>
+    <t>3717551  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3717561  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3717565  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717569  This game has no available Markets:  Start time = 2022-11-06T21:00:01</t>
+  </si>
+  <si>
+    <t>3717571  This game has no available Markets:  Start time = 2022-10-25T04:15:01</t>
+  </si>
+  <si>
+    <t>3717578  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717579  This game has no available Markets:  Start time = 2022-10-24T00:05:01</t>
+  </si>
+  <si>
+    <t>3717584  This game has no available Markets:  Start time = 2022-11-07T00:25:01</t>
+  </si>
+  <si>
+    <t>3717589  This game has no available Markets:  Start time = 2022-10-16T21:00:01</t>
+  </si>
+  <si>
+    <t>3717590  This game has no available Markets:  Start time = 2022-10-09T21:00:01</t>
+  </si>
+  <si>
+    <t>3717594  This game has no available Markets:  Start time = 2022-12-12T00:25:01</t>
+  </si>
+  <si>
+    <t>3717595  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717598  This game has no available Markets:  Start time = 2022-12-04T21:00:01</t>
+  </si>
+  <si>
+    <t>3717604  This game has no available Markets:  Start time = 2022-10-24T04:20:01</t>
+  </si>
+  <si>
+    <t>3717606  This game has no available Markets:  Start time = 2022-12-26T04:20:01</t>
+  </si>
+  <si>
+    <t>3717611  This game has no available Markets:  Start time = 2022-12-20T04:15:01</t>
+  </si>
+  <si>
+    <t>3717617  This game has no available Markets:  Start time = 2022-10-30T21:00:01</t>
+  </si>
+  <si>
+    <t>3717627  This game has no available Markets:  Start time = 2022-12-24T21:00:01</t>
+  </si>
+  <si>
+    <t>3717628  This game has no available Markets:  Start time = 2022-10-17T00:25:01</t>
+  </si>
+  <si>
+    <t>3717786  This game has no available Markets:  Start time = 2022-11-25T01:30:00</t>
+  </si>
+  <si>
+    <t>3717840  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717849  This game has no available Markets:  Start time = 2022-10-31T00:25:01</t>
+  </si>
+  <si>
+    <t>3717856  This game has no available Markets:  Start time = 2022-10-02T21:00:01</t>
+  </si>
+  <si>
+    <t>3717862  This game has no available Markets:  Start time = 2022-11-13T21:00:01</t>
+  </si>
+  <si>
+    <t>3717867  This game has no available Markets:  Start time = 2022-10-17T04:20:01</t>
+  </si>
+  <si>
+    <t>3717870  This game has no available Markets:  Start time = 2022-10-10T00:25:01</t>
+  </si>
+  <si>
+    <t>3718059  This game has no available Markets:  Start time = 2022-11-25T05:20:00</t>
+  </si>
+  <si>
+    <t>3718061  This game has no available Markets:  Start time = 2022-11-24T21:30:00</t>
   </si>
 </sst>
 </file>
@@ -110,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -209,6 +692,811 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
